--- a/src/main/resources/excel/6 Present Sentence.xlsx
+++ b/src/main/resources/excel/6 Present Sentence.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Expressing Preferences" sheetId="1" state="visible" r:id="rId3"/>
@@ -1332,16 +1332,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1560,7 +1556,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="54.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,7 +1566,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1581,7 +1577,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1592,7 +1588,7 @@
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1603,7 +1599,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1614,7 +1610,7 @@
       <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1625,7 +1621,7 @@
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1636,7 +1632,7 @@
       <c r="B7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1647,7 +1643,7 @@
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1658,7 +1654,7 @@
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1669,7 +1665,7 @@
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1680,7 +1676,7 @@
       <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1691,7 +1687,7 @@
       <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1702,7 +1698,7 @@
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1713,7 +1709,7 @@
       <c r="B14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1724,7 +1720,7 @@
       <c r="B15" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1747,15 +1743,15 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="51.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="51.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="61.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="25.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,7 +1761,7 @@
       <c r="B1" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1776,7 +1772,7 @@
       <c r="B2" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>334</v>
       </c>
     </row>
@@ -1787,7 +1783,7 @@
       <c r="B3" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>337</v>
       </c>
     </row>
@@ -1798,7 +1794,7 @@
       <c r="B4" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>340</v>
       </c>
     </row>
@@ -1809,7 +1805,7 @@
       <c r="B5" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>343</v>
       </c>
     </row>
@@ -1838,9 +1834,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="40.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="40.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="30.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="28.56"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1850,7 +1846,7 @@
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1861,7 +1857,7 @@
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1872,7 +1868,7 @@
       <c r="B3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1883,7 +1879,7 @@
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1894,7 +1890,7 @@
       <c r="B5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1905,7 +1901,7 @@
       <c r="B6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1926,17 +1922,17 @@
     <tabColor rgb="FF729FCF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1048530" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1048538" activeCellId="0" sqref="B1048538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="52.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="35.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1946,7 +1942,7 @@
       <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1957,7 +1953,7 @@
       <c r="B2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1968,7 +1964,7 @@
       <c r="B3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1979,7 +1975,7 @@
       <c r="B4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1990,7 +1986,7 @@
       <c r="B5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2001,7 +1997,7 @@
       <c r="B6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2012,7 +2008,7 @@
       <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2023,7 +2019,7 @@
       <c r="B8" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2034,7 +2030,7 @@
       <c r="B9" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2045,7 +2041,7 @@
       <c r="B10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2056,7 +2052,7 @@
       <c r="B11" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2067,7 +2063,7 @@
       <c r="B12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2078,7 +2074,7 @@
       <c r="B13" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2089,7 +2085,7 @@
       <c r="B14" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2100,33 +2096,9 @@
       <c r="B15" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2153,9 +2125,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="63.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="55.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="50.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="63.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="55.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,7 +2137,7 @@
       <c r="B1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2176,7 +2148,7 @@
       <c r="B2" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2187,7 +2159,7 @@
       <c r="B3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2198,7 +2170,7 @@
       <c r="B4" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2209,7 +2181,7 @@
       <c r="B5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2220,7 +2192,7 @@
       <c r="B6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2231,7 +2203,7 @@
       <c r="B7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2242,7 +2214,7 @@
       <c r="B8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2253,7 +2225,7 @@
       <c r="B9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2264,7 +2236,7 @@
       <c r="B10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2275,7 +2247,7 @@
       <c r="B11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2286,7 +2258,7 @@
       <c r="B12" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2297,7 +2269,7 @@
       <c r="B13" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2328,7 +2300,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="63.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="43.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,7 +2310,7 @@
       <c r="B1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>149</v>
       </c>
     </row>
@@ -2349,7 +2321,7 @@
       <c r="B2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2360,7 +2332,7 @@
       <c r="B3" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>155</v>
       </c>
     </row>
@@ -2371,7 +2343,7 @@
       <c r="B4" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2382,7 +2354,7 @@
       <c r="B5" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2393,7 +2365,7 @@
       <c r="B6" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2404,7 +2376,7 @@
       <c r="B7" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>167</v>
       </c>
     </row>
@@ -2415,7 +2387,7 @@
       <c r="B8" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2426,7 +2398,7 @@
       <c r="B9" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2437,7 +2409,7 @@
       <c r="B10" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2448,7 +2420,7 @@
       <c r="B11" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2459,7 +2431,7 @@
       <c r="B12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>182</v>
       </c>
     </row>
@@ -2470,7 +2442,7 @@
       <c r="B13" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2481,7 +2453,7 @@
       <c r="B14" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>188</v>
       </c>
     </row>
@@ -2492,7 +2464,7 @@
       <c r="B15" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>191</v>
       </c>
     </row>
@@ -2521,9 +2493,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="48.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="72.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="48.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="47.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="72.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2533,7 +2505,7 @@
       <c r="B1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>194</v>
       </c>
     </row>
@@ -2544,7 +2516,7 @@
       <c r="B2" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2573,9 +2545,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="66.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="40.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="40.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2585,7 +2557,7 @@
       <c r="B1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>200</v>
       </c>
     </row>
@@ -2596,7 +2568,7 @@
       <c r="B2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2607,7 +2579,7 @@
       <c r="B3" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>206</v>
       </c>
     </row>
@@ -2618,7 +2590,7 @@
       <c r="B4" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2629,7 +2601,7 @@
       <c r="B5" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2640,7 +2612,7 @@
       <c r="B6" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2651,7 +2623,7 @@
       <c r="B7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2662,7 +2634,7 @@
       <c r="B8" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>221</v>
       </c>
     </row>
@@ -2673,7 +2645,7 @@
       <c r="B9" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -2684,7 +2656,7 @@
       <c r="B10" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>227</v>
       </c>
     </row>
@@ -2695,7 +2667,7 @@
       <c r="B11" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>230</v>
       </c>
     </row>
@@ -2706,7 +2678,7 @@
       <c r="B12" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2717,7 +2689,7 @@
       <c r="B13" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>236</v>
       </c>
     </row>
@@ -2728,7 +2700,7 @@
       <c r="B14" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>239</v>
       </c>
     </row>
@@ -2739,7 +2711,7 @@
       <c r="B15" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2770,7 +2742,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,7 +2752,7 @@
       <c r="B1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>245</v>
       </c>
     </row>
@@ -2791,7 +2763,7 @@
       <c r="B2" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>247</v>
       </c>
     </row>
@@ -2802,7 +2774,7 @@
       <c r="B3" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>250</v>
       </c>
     </row>
@@ -2813,7 +2785,7 @@
       <c r="B4" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>253</v>
       </c>
     </row>
@@ -2824,7 +2796,7 @@
       <c r="B5" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>256</v>
       </c>
     </row>
@@ -2835,7 +2807,7 @@
       <c r="B6" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>259</v>
       </c>
     </row>
@@ -2846,7 +2818,7 @@
       <c r="B7" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>262</v>
       </c>
     </row>
@@ -2857,7 +2829,7 @@
       <c r="B8" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>265</v>
       </c>
     </row>
@@ -2868,7 +2840,7 @@
       <c r="B9" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>268</v>
       </c>
     </row>
@@ -2879,7 +2851,7 @@
       <c r="B10" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2890,7 +2862,7 @@
       <c r="B11" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>274</v>
       </c>
     </row>
@@ -2901,7 +2873,7 @@
       <c r="B12" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>277</v>
       </c>
     </row>
@@ -2912,7 +2884,7 @@
       <c r="B13" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>280</v>
       </c>
     </row>
@@ -2923,7 +2895,7 @@
       <c r="B14" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2934,7 +2906,7 @@
       <c r="B15" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>286</v>
       </c>
     </row>
@@ -2965,7 +2937,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="57.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="54.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2975,7 +2947,7 @@
       <c r="B1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>289</v>
       </c>
     </row>
@@ -2986,7 +2958,7 @@
       <c r="B2" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2997,7 +2969,7 @@
       <c r="B3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>295</v>
       </c>
     </row>
@@ -3008,7 +2980,7 @@
       <c r="B4" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3019,7 +2991,7 @@
       <c r="B5" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3030,7 +3002,7 @@
       <c r="B6" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>304</v>
       </c>
     </row>
@@ -3041,7 +3013,7 @@
       <c r="B7" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3052,7 +3024,7 @@
       <c r="B8" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3063,7 +3035,7 @@
       <c r="B9" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>313</v>
       </c>
     </row>
@@ -3074,7 +3046,7 @@
       <c r="B10" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3085,7 +3057,7 @@
       <c r="B11" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3096,7 +3068,7 @@
       <c r="B12" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3107,7 +3079,7 @@
       <c r="B13" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3118,7 +3090,7 @@
       <c r="B14" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>328</v>
       </c>
     </row>
